--- a/Bitacora_2.xlsx
+++ b/Bitacora_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://btgpactual-my.sharepoint.com/personal/juan_alcala_btgpactual_com/Documents/Escritorio/Bitacoras/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://btgpactual-my.sharepoint.com/personal/juan_alcala_btgpactual_com/Documents/Bitacoras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{B11B8281-ACE1-4350-8618-021BE984FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87516FEA-C9D7-449F-B64D-5724B9021783}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{B11B8281-ACE1-4350-8618-021BE984FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{422EDFBA-3E62-425A-B65B-4B8435A55589}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-1230" yWindow="-13110" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4485" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -89,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="218">
   <si>
     <t>Código: 
 GFPI-F-147</t>
@@ -531,24 +533,57 @@
     <t>Tipo de documento</t>
   </si>
   <si>
+    <t>Juan Carlos Alcala Martinez</t>
+  </si>
+  <si>
+    <t>C.C</t>
+  </si>
+  <si>
+    <t>juanc.alcala@soy.sena.edu.co</t>
+  </si>
+  <si>
+    <t>alcalajcm0827@gmail.com</t>
+  </si>
+  <si>
     <t>Número de grupo</t>
   </si>
   <si>
+    <t>ADSO</t>
+  </si>
+  <si>
     <t>Nombre de la empresa, ente u organización   donde está realizando la etapa productiva</t>
   </si>
   <si>
     <t>Bitácora N°</t>
   </si>
   <si>
+    <t>BTG Pactual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago Pulgarin Vazquez </t>
+  </si>
+  <si>
+    <t>Lider tecnico</t>
+  </si>
+  <si>
+    <t>Santiago.Pulgarin@btgpactual.com</t>
+  </si>
+  <si>
     <t>Datos de la persona con rol de instructor de seguimiento</t>
   </si>
   <si>
     <t>Nombre de la persona con rol de instructor de seguimiento:</t>
   </si>
   <si>
+    <t>Wilder Yohanny Ospina Saldarriaga</t>
+  </si>
+  <si>
     <t>Correo electrónico:</t>
   </si>
   <si>
+    <t>wospinas@sena.edu.co</t>
+  </si>
+  <si>
     <t>Seleccione con una "X" el tipo de alternativa de etapa productiva que está realizando, teniendo en cuenta el subtipo al cual pertenece si es el caso:</t>
   </si>
   <si>
@@ -598,6 +633,9 @@
   </si>
   <si>
     <t>Contrato de aprendizaje (regular)</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Proyecto productivo  a través de convocatorias SENNOVA</t>
@@ -687,6 +725,21 @@
     <t xml:space="preserve">Y/O COMENTARIOS  REALIZADOS POR LAS PERSONAS CON ROL DE: APRENDIZ Y/O JEFE INMEDIATO </t>
   </si>
   <si>
+    <t>Continuacion del curso de curso de python(Dia 6 hasta el dia 10)</t>
+  </si>
+  <si>
+    <t>Inicio un curso de AWS(Amazon Web Service)(Modulo 1 y 2)</t>
+  </si>
+  <si>
+    <t>Continuacion del curso de curso de python(Dia 11 hasta el dia 13)</t>
+  </si>
+  <si>
+    <t>Continuacion del curso de AWS(Modulos 3 hasta 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion para asignarme un proyecto </t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto 055 de 2015, por el cual se reglamenta la afiliación de estudiantes al Sistema General de Riesgos Laborales y se dictan otras disposiciones </t>
   </si>
   <si>
@@ -705,7 +758,14 @@
     <t xml:space="preserve">2. Verificar que el espacio de práctica cuente con los elementos de protección personal apropiados según el riesgo ocupacional. </t>
   </si>
   <si>
+    <t xml:space="preserve">SI  
+</t>
+  </si>
+  <si>
     <t>¿La persona con rol de aprendiz cuenta con los elementos de protección personal (EPP), requeridos para desarrollar su etapa productiva?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI  </t>
   </si>
   <si>
     <r>
@@ -852,68 +912,38 @@
     <t>firma el instructor que recibe la bitácora</t>
   </si>
   <si>
-    <t>Wilder Yohanny Ospina Saldarriaga</t>
-  </si>
-  <si>
-    <t>wospinas@sena.edu.co</t>
-  </si>
-  <si>
-    <t>Juan Carlos Alcala Martinez</t>
-  </si>
-  <si>
-    <t>C.C</t>
-  </si>
-  <si>
-    <t>juanc.alcala@soy.sena.edu.co</t>
-  </si>
-  <si>
-    <t>alcalajcm0827@gmail.com</t>
-  </si>
-  <si>
-    <t>ADSO</t>
-  </si>
-  <si>
-    <t>BTG Pactual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Pulgarin Vazquez </t>
-  </si>
-  <si>
-    <t>Santiago.Pulgarin@btgpactual.com</t>
-  </si>
-  <si>
-    <t>Lider de vertical</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde 07/10/2025  hasta 06/04/2025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los dias mencionados son como los modulos del curso </t>
-  </si>
-  <si>
-    <t>Continuacion del curso de curso de python(Dia 6 hasta el dia 10)</t>
-  </si>
-  <si>
-    <t>Inicio un curso de AWS(Amazon Web Service)(Modulo 1 y 2)</t>
-  </si>
-  <si>
-    <t>Continuacion del curso de curso de python(Dia 11 hasta el dia 13)</t>
-  </si>
-  <si>
-    <t>Continuacion del curso de AWS(Modulos 3 hasta 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunion para asignarme un proyecto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI  
-</t>
+    <t xml:space="preserve">Desde 15/10/2025  hasta 30/10/2025 </t>
+  </si>
+  <si>
+    <t>Los días señalados funcionan como si fueran los módulos del curso.</t>
+  </si>
+  <si>
+    <t>Cada uno de los días mencionados equivale a un módulo dentro del curso.</t>
+  </si>
+  <si>
+    <t>Capturas de pantalla del progreso alcanzado en Udemy entre los días 6 y 10.
+Registro del avance de los módulos vistos durante ese periodo..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captura de pantalla donde se evidencia el avanze dentro de la plataforma de aws </t>
+  </si>
+  <si>
+    <t>Registro de imagen del avance mostrado en Udemy correspondiente a los días 11, 12 y 13.</t>
+  </si>
+  <si>
+    <t>Capturas de pantalla que demuestren la finalización de los módulos 3, 4 y 5.</t>
+  </si>
+  <si>
+    <t>Reunion realizada por teams</t>
+  </si>
+  <si>
+    <t>Inicie el curso de AWS que se realiza dentro de la pagina web de AWS</t>
+  </si>
+  <si>
+    <t>Continue el curso de AWS dentro del la plataforma de AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estuve en una reunion donde me informaron que iba tener un proyecto </t>
   </si>
 </sst>
 </file>
@@ -2791,6 +2821,99 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2824,18 +2947,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2845,85 +2956,85 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2971,95 +3082,104 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -3072,96 +3192,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3648,8 +3678,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10584</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>296333</xdr:rowOff>
     </xdr:from>
@@ -3667,7 +3697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11059584" y="2264833"/>
+          <a:off x="2423584" y="2264833"/>
           <a:ext cx="317972" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3704,6 +3734,103 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07C4E9F-B565-0D7D-0D18-61282514CDCA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7AF2A50C-901D-F175-71FC-99B8D53B7A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="20716875"/>
+          <a:ext cx="1619250" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2053167</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>148165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78448177-8EE2-4A40-85BB-B394A6AEEB3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2328333" y="20129500"/>
+          <a:ext cx="2053167" cy="338665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4191,56 +4318,56 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="203"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="200"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="176"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="197"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="173"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4252,45 +4379,45 @@
       <c r="C8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="204" t="s">
+      <c r="D8" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="205"/>
+      <c r="E8" s="181"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="208"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="184"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="211"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="187"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="190"/>
     </row>
     <row r="12" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="181"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="170"/>
       <c r="F12" s="1"/>
       <c r="G12" s="36"/>
     </row>
@@ -4301,84 +4428,84 @@
       <c r="E13" s="80"/>
     </row>
     <row r="14" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="169" t="s">
+      <c r="B14" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="202"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="205"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="205"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="184"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="211"/>
     </row>
     <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="174"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="205"/>
     </row>
     <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="205"/>
     </row>
     <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="175" t="s">
+      <c r="B20" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
     </row>
     <row r="21" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="181"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="170"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="187" t="s">
+      <c r="B22" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188" t="s">
+      <c r="C22" s="189"/>
+      <c r="D22" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="189"/>
+      <c r="E22" s="190"/>
     </row>
     <row r="23" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="190"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="193"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="73" t="s">
@@ -4387,10 +4514,10 @@
       <c r="C24" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="193" t="s">
+      <c r="D24" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="194"/>
+      <c r="E24" s="195"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -4400,8 +4527,8 @@
       <c r="C25" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="186"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="197"/>
     </row>
     <row r="26" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="62" t="s">
@@ -4410,8 +4537,8 @@
       <c r="C26" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="185"/>
-      <c r="E26" s="186"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="197"/>
     </row>
     <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="64" t="s">
@@ -4420,8 +4547,8 @@
       <c r="C27" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="185"/>
-      <c r="E27" s="186"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="197"/>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="74" t="s">
@@ -4430,8 +4557,8 @@
       <c r="C28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="186"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="197"/>
     </row>
     <row r="29" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="74" t="s">
@@ -4440,10 +4567,10 @@
       <c r="C29" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="185" t="s">
+      <c r="D29" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="186" t="s">
+      <c r="E29" s="197" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4454,10 +4581,10 @@
       <c r="C30" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="D30" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="186" t="s">
+      <c r="E30" s="197" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4468,8 +4595,8 @@
       <c r="C31" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="185"/>
-      <c r="E31" s="186"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
     </row>
     <row r="32" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="74" t="s">
@@ -4478,10 +4605,10 @@
       <c r="C32" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="185" t="s">
+      <c r="D32" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="186" t="s">
+      <c r="E32" s="197" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4492,8 +4619,8 @@
       <c r="C33" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="185"/>
-      <c r="E33" s="186"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="197"/>
     </row>
     <row r="34" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="74" t="s">
@@ -4502,8 +4629,8 @@
       <c r="C34" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="186"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="197"/>
     </row>
     <row r="35" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B35" s="74" t="s">
@@ -4512,8 +4639,8 @@
       <c r="C35" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="185"/>
-      <c r="E35" s="186"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="197"/>
     </row>
     <row r="36" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="74" t="s">
@@ -4522,8 +4649,8 @@
       <c r="C36" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="185"/>
-      <c r="E36" s="186"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="197"/>
     </row>
     <row r="37" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="74" t="s">
@@ -4532,8 +4659,8 @@
       <c r="C37" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="185"/>
-      <c r="E37" s="186"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="197"/>
     </row>
     <row r="38" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" s="74" t="s">
@@ -4542,8 +4669,8 @@
       <c r="C38" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="186"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="197"/>
     </row>
     <row r="39" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B39" s="74" t="s">
@@ -4552,8 +4679,8 @@
       <c r="C39" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="185"/>
-      <c r="E39" s="186"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="197"/>
     </row>
     <row r="40" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B40" s="74" t="s">
@@ -4562,8 +4689,8 @@
       <c r="C40" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="185"/>
-      <c r="E40" s="186"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="197"/>
     </row>
     <row r="41" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B41" s="74" t="s">
@@ -4572,8 +4699,8 @@
       <c r="C41" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
     </row>
     <row r="42" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B42" s="74" t="s">
@@ -4582,8 +4709,8 @@
       <c r="C42" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="185"/>
-      <c r="E42" s="186"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="197"/>
     </row>
     <row r="43" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B43" s="74" t="s">
@@ -4592,10 +4719,10 @@
       <c r="C43" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="185" t="s">
+      <c r="D43" s="196" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="186" t="s">
+      <c r="E43" s="197" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4606,8 +4733,8 @@
       <c r="C44" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="185"/>
-      <c r="E44" s="186"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="197"/>
     </row>
     <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="74" t="s">
@@ -4616,8 +4743,8 @@
       <c r="C45" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="185"/>
-      <c r="E45" s="186"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="197"/>
     </row>
     <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="74" t="s">
@@ -4626,8 +4753,8 @@
       <c r="C46" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="185"/>
-      <c r="E46" s="186"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="197"/>
     </row>
     <row r="47" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="74" t="s">
@@ -4636,10 +4763,10 @@
       <c r="C47" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="185" t="s">
+      <c r="D47" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="186" t="s">
+      <c r="E47" s="197" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4650,8 +4777,8 @@
       <c r="C48" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="185"/>
-      <c r="E48" s="186"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="197"/>
     </row>
     <row r="49" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="74" t="s">
@@ -4660,10 +4787,10 @@
       <c r="C49" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="185" t="s">
+      <c r="D49" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="186" t="s">
+      <c r="E49" s="197" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4674,10 +4801,10 @@
       <c r="C50" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="185" t="s">
+      <c r="D50" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="186" t="s">
+      <c r="E50" s="197" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4688,10 +4815,10 @@
       <c r="C51" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="185" t="s">
+      <c r="D51" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="186" t="s">
+      <c r="E51" s="197" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4702,8 +4829,8 @@
       <c r="C52" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="185"/>
-      <c r="E52" s="186"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="197"/>
     </row>
     <row r="53" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B53" s="74" t="s">
@@ -4712,8 +4839,8 @@
       <c r="C53" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="185"/>
-      <c r="E53" s="186"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="197"/>
     </row>
     <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="74" t="s">
@@ -4722,8 +4849,8 @@
       <c r="C54" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="185"/>
-      <c r="E54" s="186"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="197"/>
     </row>
     <row r="55" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B55" s="74" t="s">
@@ -4732,8 +4859,8 @@
       <c r="C55" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="185"/>
-      <c r="E55" s="186"/>
+      <c r="D55" s="196"/>
+      <c r="E55" s="197"/>
     </row>
     <row r="56" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="75" t="s">
@@ -4742,8 +4869,8 @@
       <c r="C56" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="185"/>
-      <c r="E56" s="186"/>
+      <c r="D56" s="196"/>
+      <c r="E56" s="197"/>
     </row>
     <row r="57" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="76" t="s">
@@ -4752,10 +4879,10 @@
       <c r="C57" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="167" t="s">
+      <c r="D57" s="198" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="168" t="s">
+      <c r="E57" s="199" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4773,44 +4900,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B19:E19"/>
@@ -4827,6 +4916,44 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4841,8 +4968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74A078B-FDD5-4F89-B4CB-7471575D0D0F}">
   <dimension ref="B1:Z78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,14 +5051,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="197"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -4953,14 +5080,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="200"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="176"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4982,14 +5109,14 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
@@ -5011,14 +5138,14 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="200"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="176"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
@@ -5040,14 +5167,14 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="197"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5150,10 +5277,10 @@
     </row>
     <row r="11" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="120" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="D11" s="89">
         <v>1045423314</v>
@@ -5162,10 +5289,10 @@
         <v>314539922</v>
       </c>
       <c r="F11" s="162" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="G11" s="163" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5215,7 +5342,7 @@
     </row>
     <row r="13" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="135" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C13" s="123"/>
       <c r="D13" s="123"/>
@@ -5243,16 +5370,16 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="227">
+      <c r="B14" s="234">
         <v>2901692</v>
       </c>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="230" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="231"/>
-      <c r="G14" s="232"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="255" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="213"/>
+      <c r="G14" s="256"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5299,14 +5426,14 @@
     </row>
     <row r="16" spans="2:26" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="125" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C16" s="126"/>
       <c r="D16" s="130" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="127" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F16" s="131" t="s">
         <v>51</v>
@@ -5324,20 +5451,20 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="227" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="229"/>
+      <c r="B17" s="234" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="235"/>
       <c r="D17" s="133">
         <v>901491551</v>
       </c>
       <c r="E17" s="134">
         <v>2</v>
       </c>
-      <c r="F17" s="233" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="234"/>
+      <c r="F17" s="232" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="233"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="K17" s="20"/>
@@ -5404,21 +5531,21 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="227" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="229"/>
+    <row r="20" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="234" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="235"/>
       <c r="D20" s="166" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="E20" s="129">
         <v>3104546105</v>
       </c>
-      <c r="F20" s="235" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="236"/>
+      <c r="F20" s="236" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="237"/>
       <c r="H20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -5460,14 +5587,14 @@
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="218" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="220"/>
+      <c r="B22" s="245" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="246"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="247"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5490,19 +5617,19 @@
     </row>
     <row r="23" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="160" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="237" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="229"/>
+        <v>115</v>
+      </c>
+      <c r="C23" s="238" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="235"/>
       <c r="E23" s="161" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="235" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="236"/>
+        <v>117</v>
+      </c>
+      <c r="F23" s="236" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="237"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5552,7 +5679,7 @@
     <row r="25" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="38"/>
       <c r="C25" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="24"/>
@@ -5579,17 +5706,17 @@
     </row>
     <row r="26" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="144" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C26" s="145" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D26" s="146"/>
       <c r="E26" s="147" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F26" s="145" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G26" s="145"/>
       <c r="H26" s="22"/>
@@ -5614,12 +5741,12 @@
     <row r="27" spans="2:26" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="44"/>
       <c r="C27" s="81" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D27" s="82"/>
       <c r="E27" s="50"/>
       <c r="F27" s="81" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G27" s="83"/>
       <c r="H27" s="18"/>
@@ -5642,14 +5769,14 @@
     <row r="28" spans="2:26" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="45"/>
       <c r="C28" s="21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="51"/>
-      <c r="F28" s="221" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="222"/>
+      <c r="F28" s="248" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="249"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
@@ -5670,14 +5797,14 @@
     <row r="29" spans="2:26" s="13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="46"/>
       <c r="C29" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="221"/>
-      <c r="G29" s="222"/>
+        <v>127</v>
+      </c>
+      <c r="F29" s="248"/>
+      <c r="G29" s="249"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
@@ -5697,17 +5824,17 @@
     </row>
     <row r="30" spans="2:26" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="149" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="52" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G30" s="40"/>
       <c r="H30" s="18"/>
@@ -5730,12 +5857,12 @@
     <row r="31" spans="2:26" s="13" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="47"/>
       <c r="C31" s="21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="45"/>
       <c r="F31" s="91" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G31" s="86"/>
       <c r="H31" s="18"/>
@@ -5761,15 +5888,15 @@
     <row r="32" spans="2:26" s="13" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="47"/>
       <c r="C32" s="21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="49"/>
       <c r="F32" s="90" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G32" s="164" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -5794,14 +5921,14 @@
     <row r="33" spans="2:26" s="13" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="48"/>
       <c r="C33" s="89" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D33" s="150"/>
       <c r="E33" s="87" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="18"/>
@@ -5827,12 +5954,12 @@
     <row r="34" spans="2:26" s="13" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="49"/>
       <c r="C34" s="90" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D34" s="151"/>
       <c r="E34" s="53"/>
       <c r="F34" s="85" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G34" s="86"/>
       <c r="H34" s="18"/>
@@ -5857,17 +5984,17 @@
     </row>
     <row r="35" spans="2:26" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="87" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F35" s="88" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G35" s="92"/>
       <c r="H35" s="18"/>
@@ -5893,12 +6020,12 @@
     <row r="36" spans="2:26" s="13" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="48"/>
       <c r="C36" s="84" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D36" s="86"/>
       <c r="E36" s="148"/>
       <c r="F36" s="85" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G36" s="86"/>
       <c r="H36" s="18"/>
@@ -5944,22 +6071,22 @@
     </row>
     <row r="38" spans="2:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C38" s="94" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D38" s="95" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E38" s="95" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F38" s="95" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G38" s="96" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
@@ -5982,18 +6109,18 @@
     </row>
     <row r="39" spans="2:26" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="100" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C39" s="101" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D39" s="97"/>
       <c r="E39" s="97"/>
       <c r="F39" s="98" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G39" s="99" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
@@ -6015,19 +6142,21 @@
       <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="238" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="239"/>
-      <c r="D40" s="242">
+      <c r="B40" s="227" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="228"/>
+      <c r="D40" s="229">
         <v>45950</v>
       </c>
-      <c r="E40" s="242">
+      <c r="E40" s="229">
         <v>45954</v>
       </c>
-      <c r="F40" s="244"/>
-      <c r="G40" s="245" t="s">
-        <v>201</v>
+      <c r="F40" s="230" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="231" t="s">
+        <v>208</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="18"/>
@@ -6048,13 +6177,13 @@
       <c r="X40" s="18"/>
       <c r="Y40" s="18"/>
     </row>
-    <row r="41" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="240"/>
-      <c r="C41" s="241"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="243"/>
-      <c r="F41" s="243"/>
-      <c r="G41" s="246"/>
+    <row r="41" spans="2:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="222"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="225"/>
       <c r="H41" s="20"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -6075,18 +6204,22 @@
       <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="247" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="248"/>
-      <c r="D42" s="249">
+      <c r="B42" s="214" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="215"/>
+      <c r="D42" s="226">
         <v>45952</v>
       </c>
-      <c r="E42" s="249">
+      <c r="E42" s="226">
         <v>45954</v>
       </c>
-      <c r="F42" s="250"/>
-      <c r="G42" s="251"/>
+      <c r="F42" s="218" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="220" t="s">
+        <v>215</v>
+      </c>
       <c r="H42" s="20"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -6106,13 +6239,13 @@
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
     </row>
-    <row r="43" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="240"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="243"/>
-      <c r="E43" s="243"/>
-      <c r="F43" s="243"/>
-      <c r="G43" s="246"/>
+    <row r="43" spans="2:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="222"/>
+      <c r="C43" s="223"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="224"/>
+      <c r="G43" s="225"/>
       <c r="H43" s="20"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -6133,19 +6266,21 @@
       <c r="Y43" s="18"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B44" s="247" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="248"/>
-      <c r="D44" s="249">
+      <c r="B44" s="214" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="215"/>
+      <c r="D44" s="226">
         <v>45957</v>
       </c>
-      <c r="E44" s="249">
+      <c r="E44" s="226">
         <v>45961</v>
       </c>
-      <c r="F44" s="250"/>
-      <c r="G44" s="251" t="s">
-        <v>201</v>
+      <c r="F44" s="218" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" s="220" t="s">
+        <v>209</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="18"/>
@@ -6166,13 +6301,13 @@
       <c r="X44" s="18"/>
       <c r="Y44" s="18"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="240"/>
-      <c r="C45" s="241"/>
-      <c r="D45" s="243"/>
-      <c r="E45" s="243"/>
-      <c r="F45" s="243"/>
-      <c r="G45" s="246"/>
+    <row r="45" spans="2:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="222"/>
+      <c r="C45" s="223"/>
+      <c r="D45" s="224"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="225"/>
       <c r="H45" s="20"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
@@ -6193,18 +6328,22 @@
       <c r="Y45" s="18"/>
     </row>
     <row r="46" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="247" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="248"/>
-      <c r="D46" s="249">
+      <c r="B46" s="214" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="215"/>
+      <c r="D46" s="226">
         <v>45957</v>
       </c>
-      <c r="E46" s="249">
+      <c r="E46" s="226">
         <v>45960</v>
       </c>
-      <c r="F46" s="250"/>
-      <c r="G46" s="251"/>
+      <c r="F46" s="218" t="s">
+        <v>213</v>
+      </c>
+      <c r="G46" s="220" t="s">
+        <v>216</v>
+      </c>
       <c r="H46" s="20"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -6224,13 +6363,13 @@
       <c r="X46" s="18"/>
       <c r="Y46" s="18"/>
     </row>
-    <row r="47" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="240"/>
-      <c r="C47" s="241"/>
-      <c r="D47" s="243"/>
-      <c r="E47" s="243"/>
-      <c r="F47" s="243"/>
-      <c r="G47" s="246"/>
+    <row r="47" spans="2:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="222"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="224"/>
+      <c r="G47" s="225"/>
       <c r="H47" s="20"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
@@ -6251,18 +6390,22 @@
       <c r="Y47" s="18"/>
     </row>
     <row r="48" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="247" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="248"/>
-      <c r="D48" s="249">
+      <c r="B48" s="214" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="215"/>
+      <c r="D48" s="226">
         <v>45960</v>
       </c>
-      <c r="E48" s="249">
+      <c r="E48" s="226">
         <v>45960</v>
       </c>
-      <c r="F48" s="250"/>
-      <c r="G48" s="251"/>
+      <c r="F48" s="218" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="220" t="s">
+        <v>217</v>
+      </c>
       <c r="H48" s="20"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6282,13 +6425,13 @@
       <c r="X48" s="18"/>
       <c r="Y48" s="18"/>
     </row>
-    <row r="49" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="240"/>
-      <c r="C49" s="241"/>
-      <c r="D49" s="243"/>
-      <c r="E49" s="243"/>
-      <c r="F49" s="243"/>
-      <c r="G49" s="246"/>
+    <row r="49" spans="2:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="222"/>
+      <c r="C49" s="223"/>
+      <c r="D49" s="224"/>
+      <c r="E49" s="224"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="225"/>
       <c r="H49" s="20"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -6309,12 +6452,12 @@
       <c r="Y49" s="18"/>
     </row>
     <row r="50" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="247"/>
-      <c r="C50" s="248"/>
-      <c r="D50" s="250"/>
-      <c r="E50" s="250"/>
-      <c r="F50" s="250"/>
-      <c r="G50" s="251"/>
+      <c r="B50" s="214"/>
+      <c r="C50" s="215"/>
+      <c r="D50" s="218"/>
+      <c r="E50" s="218"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="220"/>
       <c r="H50" s="20"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -6335,12 +6478,12 @@
       <c r="Y50" s="18"/>
     </row>
     <row r="51" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="240"/>
-      <c r="C51" s="241"/>
-      <c r="D51" s="243"/>
-      <c r="E51" s="243"/>
-      <c r="F51" s="243"/>
-      <c r="G51" s="246"/>
+      <c r="B51" s="222"/>
+      <c r="C51" s="223"/>
+      <c r="D51" s="224"/>
+      <c r="E51" s="224"/>
+      <c r="F51" s="224"/>
+      <c r="G51" s="225"/>
       <c r="H51" s="20"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -6361,12 +6504,12 @@
       <c r="Y51" s="18"/>
     </row>
     <row r="52" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="247"/>
-      <c r="C52" s="248"/>
-      <c r="D52" s="250"/>
-      <c r="E52" s="250"/>
-      <c r="F52" s="250"/>
-      <c r="G52" s="251"/>
+      <c r="B52" s="214"/>
+      <c r="C52" s="215"/>
+      <c r="D52" s="218"/>
+      <c r="E52" s="218"/>
+      <c r="F52" s="218"/>
+      <c r="G52" s="220"/>
       <c r="H52" s="20"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -6387,12 +6530,12 @@
       <c r="Y52" s="18"/>
     </row>
     <row r="53" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="253"/>
-      <c r="C53" s="254"/>
-      <c r="D53" s="255"/>
-      <c r="E53" s="255"/>
-      <c r="F53" s="255"/>
-      <c r="G53" s="256"/>
+      <c r="B53" s="216"/>
+      <c r="C53" s="217"/>
+      <c r="D53" s="219"/>
+      <c r="E53" s="219"/>
+      <c r="F53" s="219"/>
+      <c r="G53" s="221"/>
       <c r="H53" s="20"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
@@ -6441,7 +6584,7 @@
     <row r="55" spans="2:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="102"/>
       <c r="C55" s="103" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D55" s="104"/>
       <c r="E55" s="104"/>
@@ -6467,14 +6610,14 @@
       <c r="Y55" s="22"/>
     </row>
     <row r="56" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="224" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="225"/>
-      <c r="D56" s="225"/>
-      <c r="E56" s="225"/>
-      <c r="F56" s="225"/>
-      <c r="G56" s="226"/>
+      <c r="B56" s="251" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="252"/>
+      <c r="D56" s="252"/>
+      <c r="E56" s="252"/>
+      <c r="F56" s="252"/>
+      <c r="G56" s="253"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
@@ -6496,7 +6639,7 @@
     </row>
     <row r="57" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="106" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
@@ -6524,7 +6667,7 @@
     </row>
     <row r="58" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="108" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -6552,7 +6695,7 @@
     </row>
     <row r="59" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="108" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -6580,7 +6723,7 @@
     </row>
     <row r="60" spans="2:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="108" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -6617,13 +6760,13 @@
         <v>84</v>
       </c>
       <c r="E61" s="118" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="F61" s="117" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G61" s="119" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
@@ -6647,7 +6790,7 @@
     </row>
     <row r="62" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="110" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C62" s="111">
         <v>1</v>
@@ -6706,7 +6849,7 @@
     <row r="64" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="30"/>
       <c r="D64" s="35" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E64" s="30"/>
       <c r="F64" s="30"/>
@@ -6786,9 +6929,9 @@
       <c r="Z66" s="18"/>
     </row>
     <row r="67" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="252"/>
-      <c r="C67" s="252"/>
-      <c r="D67" s="252"/>
+      <c r="B67" s="212"/>
+      <c r="C67" s="212"/>
+      <c r="D67" s="212"/>
       <c r="F67" s="165">
         <v>45961</v>
       </c>
@@ -6814,11 +6957,11 @@
       <c r="Z67" s="18"/>
     </row>
     <row r="68" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="223" t="s">
+      <c r="B68" s="250" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="223"/>
-      <c r="D68" s="223"/>
+      <c r="C68" s="250"/>
+      <c r="D68" s="250"/>
       <c r="F68" s="19" t="s">
         <v>91</v>
       </c>
@@ -6896,11 +7039,11 @@
       <c r="Z70" s="18"/>
     </row>
     <row r="71" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="252"/>
-      <c r="C71" s="252"/>
-      <c r="D71" s="252"/>
-      <c r="F71" s="231"/>
-      <c r="G71" s="231"/>
+      <c r="B71" s="212"/>
+      <c r="C71" s="212"/>
+      <c r="D71" s="212"/>
+      <c r="F71" s="213"/>
+      <c r="G71" s="213"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
@@ -6927,10 +7070,10 @@
         <v>93</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="F72" s="223" t="s">
-        <v>154</v>
-      </c>
-      <c r="G72" s="223"/>
+      <c r="F72" s="250" t="s">
+        <v>173</v>
+      </c>
+      <c r="G72" s="250"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
@@ -6953,7 +7096,7 @@
     </row>
     <row r="73" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="31" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
@@ -7008,14 +7151,14 @@
       <c r="Z74" s="18"/>
     </row>
     <row r="75" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="212" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="213"/>
-      <c r="D75" s="213"/>
-      <c r="E75" s="213"/>
-      <c r="F75" s="213"/>
-      <c r="G75" s="214"/>
+      <c r="B75" s="239" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="240"/>
+      <c r="D75" s="240"/>
+      <c r="E75" s="240"/>
+      <c r="F75" s="240"/>
+      <c r="G75" s="241"/>
       <c r="H75" s="10"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -7037,14 +7180,14 @@
       <c r="Z75" s="9"/>
     </row>
     <row r="76" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="215" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="216"/>
-      <c r="D76" s="216"/>
-      <c r="E76" s="216"/>
-      <c r="F76" s="216"/>
-      <c r="G76" s="217"/>
+      <c r="B76" s="242" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="243"/>
+      <c r="D76" s="243"/>
+      <c r="E76" s="243"/>
+      <c r="F76" s="243"/>
+      <c r="G76" s="244"/>
       <c r="H76" s="10"/>
       <c r="I76" s="37"/>
       <c r="J76" s="9"/>
@@ -7104,49 +7247,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B22:G22"/>
@@ -7163,6 +7263,49 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F23" r:id="rId1" xr:uid="{1A04884D-E1E4-4504-B262-077F3F1E0EF3}"/>
@@ -7285,124 +7428,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="283" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="283"/>
-      <c r="L1" s="283"/>
-      <c r="M1" s="283"/>
-      <c r="N1" s="283"/>
-      <c r="O1" s="283"/>
-      <c r="P1" s="283"/>
-      <c r="Q1" s="283"/>
-      <c r="R1" s="283"/>
-      <c r="S1" s="283"/>
-      <c r="T1" s="283"/>
-      <c r="U1" s="283" t="s">
-        <v>159</v>
-      </c>
-      <c r="V1" s="283"/>
-      <c r="W1" s="283"/>
-      <c r="X1" s="283"/>
+      <c r="A1" s="257" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="283"/>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="283"/>
-      <c r="R2" s="283"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="283"/>
-      <c r="U2" s="263" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
+      <c r="A2" s="257"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="257"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="257"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="265" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="290"/>
-      <c r="V3" s="290"/>
-      <c r="W3" s="290"/>
-      <c r="X3" s="290"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="266"/>
+      <c r="W3" s="266"/>
+      <c r="X3" s="266"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="287" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288"/>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288"/>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
-      <c r="M4" s="289"/>
-      <c r="N4" s="287" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4" s="288"/>
-      <c r="P4" s="288"/>
-      <c r="Q4" s="288"/>
-      <c r="R4" s="288"/>
-      <c r="S4" s="288"/>
-      <c r="T4" s="288"/>
-      <c r="U4" s="288"/>
-      <c r="V4" s="288"/>
-      <c r="W4" s="288"/>
-      <c r="X4" s="289"/>
+      <c r="A4" s="262" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="262" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
+      <c r="X4" s="264"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="284"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="285"/>
-      <c r="Q5" s="285"/>
-      <c r="R5" s="285"/>
-      <c r="S5" s="285"/>
-      <c r="T5" s="285"/>
-      <c r="U5" s="285"/>
-      <c r="V5" s="285"/>
-      <c r="W5" s="285"/>
-      <c r="X5" s="286"/>
+      <c r="A5" s="259"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="260"/>
+      <c r="M5" s="261"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="260"/>
+      <c r="Q5" s="260"/>
+      <c r="R5" s="260"/>
+      <c r="S5" s="260"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="260"/>
+      <c r="V5" s="260"/>
+      <c r="W5" s="260"/>
+      <c r="X5" s="261"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -7431,66 +7574,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="261" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261" t="s">
+      <c r="A7" s="258" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="258"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261" t="s">
+      <c r="K7" s="258"/>
+      <c r="L7" s="258"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="258"/>
+      <c r="O7" s="258"/>
+      <c r="P7" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="258"/>
+      <c r="U7" s="258"/>
+      <c r="V7" s="258"/>
+      <c r="W7" s="258"/>
+      <c r="X7" s="258"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="268"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269" t="s">
-        <v>164</v>
-      </c>
-      <c r="K8" s="270"/>
-      <c r="L8" s="270"/>
-      <c r="M8" s="270"/>
-      <c r="N8" s="270"/>
-      <c r="O8" s="271"/>
-      <c r="P8" s="269" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="270"/>
-      <c r="U8" s="270"/>
-      <c r="V8" s="270"/>
-      <c r="W8" s="270"/>
-      <c r="X8" s="271"/>
+      <c r="A8" s="267"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="269"/>
+      <c r="L8" s="269"/>
+      <c r="M8" s="269"/>
+      <c r="N8" s="269"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="268" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="269"/>
+      <c r="R8" s="269"/>
+      <c r="S8" s="269"/>
+      <c r="T8" s="269"/>
+      <c r="U8" s="269"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="269"/>
+      <c r="X8" s="270"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -7519,66 +7662,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="281" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="281"/>
-      <c r="K10" s="281"/>
-      <c r="L10" s="281"/>
-      <c r="M10" s="281"/>
-      <c r="N10" s="281"/>
-      <c r="O10" s="281"/>
-      <c r="P10" s="281"/>
-      <c r="Q10" s="281"/>
-      <c r="R10" s="281"/>
-      <c r="S10" s="281"/>
-      <c r="T10" s="281"/>
-      <c r="U10" s="281"/>
-      <c r="V10" s="281"/>
-      <c r="W10" s="281"/>
-      <c r="X10" s="281"/>
+      <c r="A10" s="271" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="271"/>
+      <c r="C10" s="271"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="271"/>
+      <c r="K10" s="271"/>
+      <c r="L10" s="271"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="271"/>
+      <c r="O10" s="271"/>
+      <c r="P10" s="271"/>
+      <c r="Q10" s="271"/>
+      <c r="R10" s="271"/>
+      <c r="S10" s="271"/>
+      <c r="T10" s="271"/>
+      <c r="U10" s="271"/>
+      <c r="V10" s="271"/>
+      <c r="W10" s="271"/>
+      <c r="X10" s="271"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="282"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="G11" s="282" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="282"/>
-      <c r="I11" s="282"/>
-      <c r="J11" s="282"/>
-      <c r="K11" s="282"/>
-      <c r="L11" s="282"/>
-      <c r="M11" s="282" t="s">
-        <v>168</v>
-      </c>
-      <c r="N11" s="282"/>
-      <c r="O11" s="282"/>
-      <c r="P11" s="282"/>
-      <c r="Q11" s="282"/>
-      <c r="R11" s="282"/>
-      <c r="S11" s="282" t="s">
-        <v>169</v>
-      </c>
-      <c r="T11" s="282"/>
-      <c r="U11" s="282"/>
-      <c r="V11" s="282"/>
-      <c r="W11" s="282"/>
-      <c r="X11" s="282"/>
+      <c r="A11" s="272" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="272"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="272"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="272"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="272" t="s">
+        <v>187</v>
+      </c>
+      <c r="N11" s="272"/>
+      <c r="O11" s="272"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="272"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="272" t="s">
+        <v>188</v>
+      </c>
+      <c r="T11" s="272"/>
+      <c r="U11" s="272"/>
+      <c r="V11" s="272"/>
+      <c r="W11" s="272"/>
+      <c r="X11" s="272"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -7607,66 +7750,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="261" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="261"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="261" t="s">
+      <c r="A13" s="258" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="258"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="258"/>
+      <c r="H13" s="258"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="261"/>
-      <c r="L13" s="261"/>
-      <c r="M13" s="261"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261" t="s">
+      <c r="K13" s="258"/>
+      <c r="L13" s="258"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="261"/>
-      <c r="W13" s="261"/>
-      <c r="X13" s="261"/>
+      <c r="Q13" s="258"/>
+      <c r="R13" s="258"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="258"/>
+      <c r="U13" s="258"/>
+      <c r="V13" s="258"/>
+      <c r="W13" s="258"/>
+      <c r="X13" s="258"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="268"/>
-      <c r="B14" s="268"/>
-      <c r="C14" s="268"/>
-      <c r="D14" s="268"/>
-      <c r="E14" s="268"/>
-      <c r="F14" s="268"/>
-      <c r="G14" s="268"/>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="269" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="270"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="270"/>
-      <c r="N14" s="270"/>
-      <c r="O14" s="271"/>
-      <c r="P14" s="269" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q14" s="270"/>
-      <c r="R14" s="270"/>
-      <c r="S14" s="270"/>
-      <c r="T14" s="270"/>
-      <c r="U14" s="270"/>
-      <c r="V14" s="270"/>
-      <c r="W14" s="270"/>
-      <c r="X14" s="271"/>
+      <c r="A14" s="267"/>
+      <c r="B14" s="267"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="267"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="268" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
+      <c r="M14" s="269"/>
+      <c r="N14" s="269"/>
+      <c r="O14" s="270"/>
+      <c r="P14" s="268" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="269"/>
+      <c r="R14" s="269"/>
+      <c r="S14" s="269"/>
+      <c r="T14" s="269"/>
+      <c r="U14" s="269"/>
+      <c r="V14" s="269"/>
+      <c r="W14" s="269"/>
+      <c r="X14" s="270"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -7695,184 +7838,172 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="272" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="272"/>
-      <c r="I16" s="272"/>
-      <c r="J16" s="273" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" s="273"/>
-      <c r="L16" s="273"/>
-      <c r="M16" s="273"/>
-      <c r="N16" s="272" t="s">
-        <v>175</v>
-      </c>
-      <c r="O16" s="272"/>
-      <c r="P16" s="272"/>
-      <c r="Q16" s="272"/>
-      <c r="R16" s="272"/>
-      <c r="S16" s="272"/>
-      <c r="T16" s="274" t="s">
-        <v>176</v>
-      </c>
-      <c r="U16" s="274"/>
-      <c r="V16" s="274"/>
-      <c r="W16" s="274"/>
-      <c r="X16" s="274"/>
+      <c r="A16" s="278" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="278"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="278"/>
+      <c r="H16" s="278"/>
+      <c r="I16" s="278"/>
+      <c r="J16" s="279" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="279"/>
+      <c r="L16" s="279"/>
+      <c r="M16" s="279"/>
+      <c r="N16" s="278" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="278"/>
+      <c r="P16" s="278"/>
+      <c r="Q16" s="278"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="280" t="s">
+        <v>195</v>
+      </c>
+      <c r="U16" s="280"/>
+      <c r="V16" s="280"/>
+      <c r="W16" s="280"/>
+      <c r="X16" s="280"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="262" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="263"/>
-      <c r="C17" s="263"/>
-      <c r="D17" s="263"/>
-      <c r="E17" s="263"/>
-      <c r="F17" s="263"/>
-      <c r="G17" s="263"/>
-      <c r="H17" s="263"/>
-      <c r="I17" s="264"/>
-      <c r="J17" s="275" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="276"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="277"/>
-      <c r="N17" s="262" t="s">
-        <v>179</v>
-      </c>
-      <c r="O17" s="263"/>
-      <c r="P17" s="263"/>
-      <c r="Q17" s="263"/>
-      <c r="R17" s="263"/>
-      <c r="S17" s="264"/>
-      <c r="T17" s="262" t="s">
-        <v>180</v>
-      </c>
-      <c r="U17" s="263"/>
-      <c r="V17" s="263"/>
-      <c r="W17" s="263"/>
-      <c r="X17" s="264"/>
+      <c r="A17" s="273" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="265"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="265"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="265"/>
+      <c r="G17" s="265"/>
+      <c r="H17" s="265"/>
+      <c r="I17" s="274"/>
+      <c r="J17" s="281" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="282"/>
+      <c r="L17" s="282"/>
+      <c r="M17" s="283"/>
+      <c r="N17" s="273" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="265"/>
+      <c r="P17" s="265"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="265"/>
+      <c r="S17" s="274"/>
+      <c r="T17" s="273" t="s">
+        <v>199</v>
+      </c>
+      <c r="U17" s="265"/>
+      <c r="V17" s="265"/>
+      <c r="W17" s="265"/>
+      <c r="X17" s="274"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="265"/>
-      <c r="B18" s="266"/>
-      <c r="C18" s="266"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="267"/>
-      <c r="J18" s="278"/>
-      <c r="K18" s="279"/>
-      <c r="L18" s="279"/>
-      <c r="M18" s="280"/>
-      <c r="N18" s="265"/>
-      <c r="O18" s="266"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="266"/>
-      <c r="R18" s="266"/>
-      <c r="S18" s="267"/>
-      <c r="T18" s="265"/>
-      <c r="U18" s="266"/>
-      <c r="V18" s="266"/>
-      <c r="W18" s="266"/>
-      <c r="X18" s="267"/>
+      <c r="A18" s="275"/>
+      <c r="B18" s="276"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="276"/>
+      <c r="E18" s="276"/>
+      <c r="F18" s="276"/>
+      <c r="G18" s="276"/>
+      <c r="H18" s="276"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="284"/>
+      <c r="K18" s="285"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="286"/>
+      <c r="N18" s="275"/>
+      <c r="O18" s="276"/>
+      <c r="P18" s="276"/>
+      <c r="Q18" s="276"/>
+      <c r="R18" s="276"/>
+      <c r="S18" s="277"/>
+      <c r="T18" s="275"/>
+      <c r="U18" s="276"/>
+      <c r="V18" s="276"/>
+      <c r="W18" s="276"/>
+      <c r="X18" s="277"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
+      <c r="A21" s="290" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="290"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="290"/>
+      <c r="H21" s="290"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="260" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="260"/>
-      <c r="L21" s="260"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="260"/>
-      <c r="P21" s="260"/>
+      <c r="J21" s="290" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="290"/>
+      <c r="L21" s="290"/>
+      <c r="M21" s="290"/>
+      <c r="N21" s="290"/>
+      <c r="O21" s="290"/>
+      <c r="P21" s="290"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="260" t="s">
-        <v>183</v>
-      </c>
-      <c r="S21" s="260"/>
-      <c r="T21" s="260"/>
-      <c r="U21" s="260"/>
-      <c r="V21" s="260"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="260"/>
+      <c r="R21" s="290" t="s">
+        <v>202</v>
+      </c>
+      <c r="S21" s="290"/>
+      <c r="T21" s="290"/>
+      <c r="U21" s="290"/>
+      <c r="V21" s="290"/>
+      <c r="W21" s="290"/>
+      <c r="X21" s="290"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="257" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q23" s="257"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="257"/>
-      <c r="T23" s="257"/>
-      <c r="U23" s="258" t="s">
-        <v>185</v>
-      </c>
-      <c r="V23" s="258"/>
-      <c r="W23" s="258"/>
-      <c r="X23" s="258"/>
+      <c r="P23" s="287" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q23" s="287"/>
+      <c r="R23" s="287"/>
+      <c r="S23" s="287"/>
+      <c r="T23" s="287"/>
+      <c r="U23" s="288" t="s">
+        <v>204</v>
+      </c>
+      <c r="V23" s="288"/>
+      <c r="W23" s="288"/>
+      <c r="X23" s="288"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="257" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q24" s="257"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="257"/>
-      <c r="T24" s="257"/>
-      <c r="U24" s="259" t="s">
-        <v>187</v>
-      </c>
-      <c r="V24" s="259"/>
-      <c r="W24" s="259"/>
-      <c r="X24" s="259"/>
+      <c r="P24" s="287" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q24" s="287"/>
+      <c r="R24" s="287"/>
+      <c r="S24" s="287"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="289" t="s">
+        <v>206</v>
+      </c>
+      <c r="V24" s="289"/>
+      <c r="W24" s="289"/>
+      <c r="X24" s="289"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -7887,13 +8018,25 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>
